--- a/实施问题记录表/全球捷运集团清关帮手实施问题表.xlsx
+++ b/实施问题记录表/全球捷运集团清关帮手实施问题表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,12 +68,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="000"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -111,21 +111,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,13 +120,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -155,52 +146,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +171,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,26 +253,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,7 +312,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,13 +384,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,31 +426,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,97 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,17 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,20 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,16 +639,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -665,10 +667,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -690,10 +690,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +702,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,7 +1209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10637520" y="15175865"/>
+          <a:off x="11194415" y="15175865"/>
           <a:ext cx="552450" cy="712470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1265,7 +1265,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11237595" y="15194915"/>
+          <a:off x="11794490" y="15194915"/>
           <a:ext cx="581025" cy="693420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1621,7 +1621,7 @@
   <dimension ref="A1:P720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1634,7 +1634,7 @@
     <col min="6" max="6" width="5.5" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="5.75454545454545" style="5" customWidth="1"/>
     <col min="8" max="8" width="25.1818181818182" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.7545454545455" style="10" customWidth="1"/>
+    <col min="9" max="9" width="21.7272727272727" style="10" customWidth="1"/>
     <col min="10" max="10" width="10.8727272727273" style="10" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="10" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="10" customWidth="1"/>
@@ -2674,7 +2674,9 @@
       <c r="H4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="77">
+        <v>43768</v>
+      </c>
       <c r="J4" s="77"/>
       <c r="K4" s="77"/>
       <c r="L4" s="77"/>

--- a/实施问题记录表/全球捷运集团清关帮手实施问题表.xlsx
+++ b/实施问题记录表/全球捷运集团清关帮手实施问题表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>[XXXX]部署实施问题表</t>
   </si>
@@ -62,18 +62,21 @@
   <si>
     <t>在安装亿通的信天翁产品的子任务时候，需要2个海关报关员IC卡，上次我们去申请的海关的U-KEY，申请的是操作员，申请错了，需要申请的是报关员。现在的问题是：现在我们从亿通那得到的信息是，操作员可以打单，但不能发送。能发送的是报关员IC卡。</t>
   </si>
+  <si>
+    <t>在拿到卡以后，用api走一遍程序</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -118,14 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +135,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -147,15 +150,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,25 +165,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,7 +189,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,7 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,26 +240,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,79 +315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +351,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +423,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,43 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,39 +590,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,11 +625,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,171 +685,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2692,7 +2695,9 @@
         <v>2</v>
       </c>
       <c r="C5" s="22"/>
-      <c r="D5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="27"/>
       <c r="F5" s="26"/>
       <c r="G5" s="28"/>
